--- a/dataproc/pj3-data/2.xlsx
+++ b/dataproc/pj3-data/2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43889\Desktop\质研院\质量数据集\质量数据集\3. 上海市质量数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\机械项目\blue99\Blue_2\dataproc\pj3-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD484630-EED2-4443-967D-3DAF8032E7B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DCAC42-EA89-4AAB-9D6C-FB52306120A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="0" windowWidth="14440" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="19" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2008-2017年上海市国家级监督抽查及市级监督抽查合格率" sheetId="41" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <sheet name="2013-2017年上海市绿化市容质量指标完成情况统计" sheetId="39" r:id="rId22"/>
     <sheet name="社区卫生服务历年公众满意度结果" sheetId="40" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -95,23 +95,23 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>国抽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>市抽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>上海市产品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>外省市产品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2009</t>
@@ -141,29 +141,20 @@
     <t>2017</t>
   </si>
   <si>
-    <t>农资产品</t>
-  </si>
-  <si>
-    <t>工业生产资料</t>
-  </si>
-  <si>
-    <t>日用消费品</t>
-  </si>
-  <si>
     <t>食品安全风险监测总体合格率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>中毒起数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>中毒人数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2005年</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>2006年</t>
@@ -200,7 +191,7 @@
   </si>
   <si>
     <t>2017年</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>药品合格率</t>
@@ -283,35 +274,35 @@
   </si>
   <si>
     <t>安装</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>/</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>使用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>维修</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>年份</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>国际标准数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>地方标准数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>企业标准数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -328,27 +319,27 @@
       </rPr>
       <t>017年</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>年份</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当年地方立项标准数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>当年年底现行有效地方标准</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>国家级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>市级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -507,11 +498,11 @@
   </si>
   <si>
     <t>年份</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>建设工程“白玉兰”奖数量</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -737,7 +728,19 @@
   </si>
   <si>
     <t>社区卫生服务公众满意度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>农资产品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业生产资料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日用消费品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -747,13 +750,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -978,12 +988,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1003,27 +1013,27 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1032,78 +1042,79 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="2" builtinId="5"/>
@@ -1427,13 +1438,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214079C3-DDD6-41B5-80C6-67CBB4A788A2}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -1441,18 +1452,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2008</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="39">
         <v>83.6</v>
       </c>
       <c r="C2">
         <v>76.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -1463,7 +1474,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -1474,7 +1485,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -1485,7 +1496,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -1496,7 +1507,7 @@
         <v>89.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -1507,7 +1518,7 @@
         <v>88.8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -1518,7 +1529,7 @@
         <v>91.3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -1529,7 +1540,7 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -1540,7 +1551,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -1552,7 +1563,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1566,9 +1577,9 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1">
         <v>2011</v>
       </c>
@@ -1591,9 +1602,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B2" s="17">
         <v>0.15</v>
@@ -1605,7 +1616,7 @@
         <v>0.05</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="17">
         <v>0.05</v>
@@ -1617,9 +1628,9 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="17">
         <v>0.78</v>
@@ -1643,9 +1654,9 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="17">
         <v>7.0000000000000007E-2</v>
@@ -1670,7 +1681,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1684,30 +1695,30 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1658</v>
@@ -1719,9 +1730,9 @@
         <v>160417</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>1857</v>
@@ -1733,9 +1744,9 @@
         <v>169038</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>2017</v>
@@ -1747,9 +1758,9 @@
         <v>174073</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>2317</v>
@@ -1761,9 +1772,9 @@
         <v>179087</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>2575</v>
@@ -1775,9 +1786,9 @@
         <v>184681</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>2805</v>
@@ -1789,9 +1800,9 @@
         <v>190788</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>2985</v>
@@ -1803,9 +1814,9 @@
         <v>196852</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>3120</v>
@@ -1817,9 +1828,9 @@
         <v>198013</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>988</v>
@@ -1828,9 +1839,9 @@
         <v>210238</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="16">
         <v>990</v>
@@ -1840,7 +1851,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1853,20 +1864,20 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -1877,7 +1888,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -1888,7 +1899,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -1899,7 +1910,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -1910,7 +1921,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -1921,7 +1932,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -1932,7 +1943,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -1943,7 +1954,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -1954,7 +1965,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -1965,7 +1976,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -1977,7 +1988,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1990,9 +2001,9 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B1">
         <v>2009</v>
       </c>
@@ -2021,9 +2032,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -2053,9 +2064,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -2086,7 +2097,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2099,17 +2110,17 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -2117,7 +2128,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -2125,7 +2136,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -2133,7 +2144,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -2141,7 +2152,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -2149,7 +2160,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -2157,7 +2168,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -2165,7 +2176,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -2173,7 +2184,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -2181,7 +2192,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -2190,7 +2201,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2203,39 +2214,39 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>37</v>
+    <row r="1" spans="1:5" ht="38.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
+        <v>34</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41"/>
+      <c r="B2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="27.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>2008</v>
       </c>
@@ -2249,15 +2260,15 @@
         <v>569</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>2009</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="26">
         <v>46</v>
@@ -2266,15 +2277,15 @@
         <v>666</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>2010</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="26">
         <v>44</v>
@@ -2283,15 +2294,15 @@
         <v>749</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
         <v>2011</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="26">
         <v>45</v>
@@ -2300,15 +2311,15 @@
         <v>703</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>2012</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="26">
         <v>45</v>
@@ -2317,15 +2328,15 @@
         <v>885</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>2013</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C8" s="26">
         <v>35</v>
@@ -2334,15 +2345,15 @@
         <v>911</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>2014</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="26">
         <v>35</v>
@@ -2351,15 +2362,15 @@
         <v>908</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>2015</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" s="26">
         <v>39</v>
@@ -2368,15 +2379,15 @@
         <v>883</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>2016</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C11" s="26">
         <v>37</v>
@@ -2385,24 +2396,24 @@
         <v>808</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>2017</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D12" s="26">
         <v>735</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2410,7 +2421,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2423,26 +2434,26 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="40.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>2008</v>
       </c>
@@ -2459,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
         <v>2009</v>
       </c>
@@ -2476,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30">
         <v>2010</v>
       </c>
@@ -2493,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <v>2011</v>
       </c>
@@ -2510,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <v>2012</v>
       </c>
@@ -2527,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>2013</v>
       </c>
@@ -2544,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>2014</v>
       </c>
@@ -2561,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>2015</v>
       </c>
@@ -2578,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>2016</v>
       </c>
@@ -2595,7 +2606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>2017</v>
       </c>
@@ -2613,7 +2624,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2626,11 +2637,11 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2">
         <v>2008</v>
@@ -2660,9 +2671,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2">
         <v>153</v>
@@ -2693,7 +2704,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2706,20 +2717,20 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>2012</v>
       </c>
@@ -2730,7 +2741,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
         <v>2013</v>
       </c>
@@ -2741,7 +2752,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30">
         <v>2014</v>
       </c>
@@ -2752,7 +2763,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <v>2015</v>
       </c>
@@ -2763,7 +2774,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <v>2016</v>
       </c>
@@ -2772,7 +2783,7 @@
       </c>
       <c r="C6" s="31"/>
     </row>
-    <row r="7" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>2017</v>
       </c>
@@ -2782,7 +2793,7 @@
       <c r="C7" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2795,26 +2806,26 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="41.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>2008</v>
       </c>
@@ -2831,7 +2842,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
         <v>2009</v>
       </c>
@@ -2848,7 +2859,7 @@
         <v>94.25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30">
         <v>2010</v>
       </c>
@@ -2865,7 +2876,7 @@
         <v>96.4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <v>2011</v>
       </c>
@@ -2882,7 +2893,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <v>2012</v>
       </c>
@@ -2899,7 +2910,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>2013</v>
       </c>
@@ -2916,7 +2927,7 @@
         <v>70.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>2014</v>
       </c>
@@ -2933,7 +2944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>2015</v>
       </c>
@@ -2950,7 +2961,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>2016</v>
       </c>
@@ -2967,7 +2978,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>2017</v>
       </c>
@@ -2981,7 +2992,7 @@
       <c r="E11" s="31"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2994,9 +3005,9 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="3">
         <v>2008</v>
@@ -3029,7 +3040,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3062,7 +3073,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3096,7 +3107,7 @@
       <c r="K3" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3110,23 +3121,23 @@
       <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="41.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>2014</v>
       </c>
@@ -3140,7 +3151,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
         <v>2015</v>
       </c>
@@ -3154,7 +3165,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30">
         <v>2016</v>
       </c>
@@ -3168,7 +3179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <v>2017</v>
       </c>
@@ -3183,7 +3194,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3196,37 +3207,37 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" ht="53.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="41"/>
+      <c r="B2" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" ht="55.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>110</v>
-      </c>
       <c r="D2" s="23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
         <v>2008</v>
       </c>
@@ -3243,7 +3254,7 @@
         <v>66.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30">
         <v>2009</v>
       </c>
@@ -3260,7 +3271,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <v>2010</v>
       </c>
@@ -3277,7 +3288,7 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <v>2011</v>
       </c>
@@ -3294,7 +3305,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>2012</v>
       </c>
@@ -3311,7 +3322,7 @@
         <v>64.400000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>2013</v>
       </c>
@@ -3328,7 +3339,7 @@
         <v>64.599999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>2014</v>
       </c>
@@ -3345,7 +3356,7 @@
         <v>65.599999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>2015</v>
       </c>
@@ -3362,7 +3373,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>2016</v>
       </c>
@@ -3379,7 +3390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>2017</v>
       </c>
@@ -3388,9 +3399,9 @@
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B13" s="31">
         <v>55.6</v>
@@ -3411,7 +3422,7 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3424,26 +3435,26 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>2013</v>
       </c>
@@ -3460,7 +3471,7 @@
         <v>0.1052</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
         <v>2014</v>
       </c>
@@ -3477,7 +3488,7 @@
         <v>0.15359999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="30">
         <v>2015</v>
       </c>
@@ -3494,7 +3505,7 @@
         <v>0.2021</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <v>2016</v>
       </c>
@@ -3511,7 +3522,7 @@
         <v>0.2021</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <v>2017</v>
       </c>
@@ -3521,7 +3532,7 @@
       <c r="E6" s="35"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3534,20 +3545,20 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2011</v>
       </c>
@@ -3555,7 +3566,7 @@
         <v>84.28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -3563,7 +3574,7 @@
         <v>86.03</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2013</v>
       </c>
@@ -3571,7 +3582,7 @@
         <v>85.05</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2014</v>
       </c>
@@ -3579,7 +3590,7 @@
         <v>84.78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2015</v>
       </c>
@@ -3587,7 +3598,7 @@
         <v>85.69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2016</v>
       </c>
@@ -3595,7 +3606,7 @@
         <v>86.24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2017</v>
       </c>
@@ -3604,7 +3615,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3616,13 +3627,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC40CCFE-D80B-4848-B9F7-D8A936916958}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3633,7 +3644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>2007</v>
       </c>
@@ -3644,7 +3655,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>2008</v>
       </c>
@@ -3655,7 +3666,7 @@
         <v>0.80500000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2009</v>
       </c>
@@ -3666,7 +3677,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>2010</v>
       </c>
@@ -3677,7 +3688,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>2011</v>
       </c>
@@ -3688,7 +3699,7 @@
         <v>0.89200000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>2012</v>
       </c>
@@ -3699,7 +3710,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>2013</v>
       </c>
@@ -3710,7 +3721,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>2014</v>
       </c>
@@ -3721,7 +3732,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>2015</v>
       </c>
@@ -3732,7 +3743,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>2016</v>
       </c>
@@ -3743,7 +3754,7 @@
         <v>0.89200000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>2017</v>
       </c>
@@ -3755,7 +3766,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3771,13 +3782,13 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -3785,7 +3796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -3796,7 +3807,7 @@
         <v>0.71299999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -3807,7 +3818,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -3818,7 +3829,7 @@
         <v>0.83699999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -3829,7 +3840,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -3840,7 +3851,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -3851,7 +3862,7 @@
         <v>0.873</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -3862,7 +3873,7 @@
         <v>0.8034</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -3873,7 +3884,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -3884,7 +3895,7 @@
         <v>0.84299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -3896,7 +3907,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3905,13 +3916,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E9B919-045D-42CB-90FB-ABBBE441F76C}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -3940,9 +3951,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" s="44" t="s">
+        <v>114</v>
       </c>
       <c r="B2" s="7">
         <v>0.88500000000000001</v>
@@ -3972,9 +3983,9 @@
         <v>0.96899999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" s="44" t="s">
+        <v>115</v>
       </c>
       <c r="B3" s="7">
         <v>0.89200000000000002</v>
@@ -4004,9 +4015,9 @@
         <v>0.90100000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="44" t="s">
+        <v>116</v>
       </c>
       <c r="B4" s="7">
         <v>0.85699999999999998</v>
@@ -4037,7 +4048,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4053,12 +4064,12 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1">
         <v>2008</v>
       </c>
@@ -4090,9 +4101,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>0.92700000000000005</v>
@@ -4126,7 +4137,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4139,19 +4150,19 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>39</v>
@@ -4160,9 +4171,9 @@
         <v>971</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>33</v>
@@ -4171,9 +4182,9 @@
         <v>917</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -4182,9 +4193,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>17</v>
@@ -4193,9 +4204,9 @@
         <v>467</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -4204,9 +4215,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -4215,9 +4226,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -4226,9 +4237,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -4237,9 +4248,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -4248,9 +4259,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -4259,9 +4270,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -4270,9 +4281,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -4281,9 +4292,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -4293,7 +4304,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4306,9 +4317,9 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B1">
         <v>2008</v>
       </c>
@@ -4340,9 +4351,9 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>0.96509999999999996</v>
@@ -4375,9 +4386,9 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>0.99139999999999995</v>
@@ -4411,7 +4422,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4424,26 +4435,26 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="30.90625" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>2008</v>
       </c>
@@ -4454,10 +4465,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2009</v>
       </c>
@@ -4468,10 +4479,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>2010</v>
       </c>
@@ -4482,10 +4493,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>2011</v>
       </c>
@@ -4496,10 +4507,10 @@
         <v>23</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>2012</v>
       </c>
@@ -4510,10 +4521,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>2013</v>
       </c>
@@ -4524,10 +4535,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>2014</v>
       </c>
@@ -4538,10 +4549,10 @@
         <v>19</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>2015</v>
       </c>
@@ -4552,10 +4563,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>2016</v>
       </c>
@@ -4566,10 +4577,10 @@
         <v>10</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>2017</v>
       </c>
@@ -4580,11 +4591,11 @@
         <v>16</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>